--- a/excels/employees.xlsx
+++ b/excels/employees.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Base de Datos II\streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Base de Datos II\2 Corte\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>employee_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -437,21 +434,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="5" width="16.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="4" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,91 +457,70 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2">
         <v>1700</v>
       </c>
     </row>
